--- a/PLOTS/Noiseless.xlsx
+++ b/PLOTS/Noiseless.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abhinav\Documents\GitHub\rfid_locatron_CLONED\PLOTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Downloads\rfid_locatron\PLOTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEA9881-8E70-40EC-9878-72D505B9D7E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322DC0D3-D8DF-4A08-8CE7-C899A4F518C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18900" yWindow="4605" windowWidth="17250" windowHeight="8910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1428" yWindow="1320" windowWidth="6360" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -375,7 +375,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -408,7 +408,7 @@
         <v>9.4299999999999995E-2</v>
       </c>
       <c r="D2">
-        <v>0.11799999999999999</v>
+        <v>0.1118</v>
       </c>
       <c r="E2">
         <v>8.9399999999999993E-2</v>
